--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/A/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/A/20/seed5/result_data_RandomForest.xlsx
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.82620000000002</v>
+        <v>-21.80360000000001</v>
       </c>
       <c r="B11" t="n">
         <v>3.8</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.56150000000001</v>
+        <v>-21.5825</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.9225</v>
+        <v>-21.89239999999999</v>
       </c>
       <c r="B15" t="n">
         <v>5.32</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.83199999999999</v>
+        <v>-21.7256</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.95470000000001</v>
+        <v>-21.83990000000001</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-21.5884</v>
+        <v>-21.7145</v>
       </c>
       <c r="B31" t="n">
         <v>4.47</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.3442</v>
+        <v>-21.31819999999998</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.1931</v>
+        <v>-20.2417</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.5731</v>
+        <v>-19.61799999999999</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.78040000000001</v>
+        <v>-21.90200000000001</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.6554</v>
+        <v>-21.7043</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.38260000000001</v>
+        <v>-22.35520000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.1043</v>
+        <v>-22.1094</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.40829999999997</v>
+        <v>-21.48359999999999</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.67519999999997</v>
+        <v>-21.71199999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.746</v>
+        <v>-21.7758</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-19.75149999999999</v>
+        <v>-19.8607</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.73199999999999</v>
+        <v>-21.7394</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-22.0539</v>
+        <v>-21.9361</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.47720000000002</v>
+        <v>-21.50190000000001</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.2443</v>
+        <v>-21.24309999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.10339999999999</v>
+        <v>-19.99629999999999</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
